--- a/02. Data2HR/output data/dataAD.xlsx
+++ b/02. Data2HR/output data/dataAD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K457"/>
+  <dimension ref="A1:L457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>Criticidad Name</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +547,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -595,6 +601,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -648,6 +655,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -697,6 +705,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -746,6 +755,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -795,6 +805,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -848,6 +859,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -897,6 +909,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -947,6 +960,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1000,6 +1014,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1053,6 +1068,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1106,6 +1122,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1159,6 +1176,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1212,6 +1230,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1265,6 +1284,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1318,6 +1338,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1371,6 +1392,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1424,6 +1446,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1477,6 +1500,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1530,6 +1554,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1583,6 +1608,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1636,6 +1662,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1689,6 +1716,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1742,6 +1770,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1795,6 +1824,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1848,6 +1878,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,6 +1932,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1954,6 +1986,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2007,6 +2040,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2060,6 +2094,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2113,6 +2148,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2166,6 +2202,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2219,6 +2256,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2272,6 +2310,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2325,6 +2364,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2378,6 +2418,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2431,6 +2472,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2484,6 +2526,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2537,6 +2580,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2590,6 +2634,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2643,6 +2688,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2696,6 +2742,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2749,6 +2796,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2802,6 +2850,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2855,6 +2904,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2908,6 +2958,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2957,6 +3008,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3010,6 +3062,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3063,6 +3116,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3116,6 +3170,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3169,6 +3224,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3222,6 +3278,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3275,6 +3332,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3328,6 +3386,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3381,6 +3440,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3430,6 +3490,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3483,6 +3544,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3536,6 +3598,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3589,6 +3652,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3642,6 +3706,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3695,6 +3760,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3748,6 +3814,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3801,6 +3868,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3854,6 +3922,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3907,6 +3976,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3960,6 +4030,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4013,6 +4084,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4066,6 +4138,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4119,6 +4192,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4172,6 +4246,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4225,6 +4300,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4278,6 +4354,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4331,6 +4408,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4384,6 +4462,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4437,6 +4516,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4490,6 +4570,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4539,6 +4620,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4588,6 +4670,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4641,6 +4724,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4694,6 +4778,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4747,6 +4832,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4800,6 +4886,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4853,6 +4940,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4906,6 +4994,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4959,6 +5048,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5012,6 +5102,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5065,6 +5156,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5118,6 +5210,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5171,6 +5264,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5220,6 +5314,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5269,6 +5364,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5322,6 +5418,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5375,6 +5472,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5428,6 +5526,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5481,6 +5580,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5534,6 +5634,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5587,6 +5688,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5640,6 +5742,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5693,6 +5796,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5746,6 +5850,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5799,6 +5904,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5852,6 +5958,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5905,6 +6012,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5958,6 +6066,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6011,6 +6120,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6064,6 +6174,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6117,6 +6228,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6170,6 +6282,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6223,6 +6336,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6276,6 +6390,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6329,6 +6444,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6382,6 +6498,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6435,6 +6552,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6488,6 +6606,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6541,6 +6660,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6594,6 +6714,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6647,6 +6768,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6700,6 +6822,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6753,6 +6876,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6802,6 +6926,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6855,6 +6980,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6908,6 +7034,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6961,6 +7088,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7014,6 +7142,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7067,6 +7196,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7120,6 +7250,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7173,6 +7304,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7226,6 +7358,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7279,6 +7412,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7332,6 +7466,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7385,6 +7520,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7438,6 +7574,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7491,6 +7628,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7544,6 +7682,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7597,6 +7736,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7650,6 +7790,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7703,6 +7844,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7756,6 +7898,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7809,6 +7952,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7862,6 +8006,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7912,6 +8057,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7961,6 +8107,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8014,6 +8161,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8067,6 +8215,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8117,6 +8266,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8167,6 +8317,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8216,6 +8367,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8265,6 +8417,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8314,6 +8467,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8367,6 +8521,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8420,6 +8575,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8473,6 +8629,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8522,6 +8679,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8571,6 +8729,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8620,6 +8779,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8669,6 +8829,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8722,6 +8883,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8775,6 +8937,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8828,6 +8991,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8881,6 +9045,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8931,6 +9096,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8980,6 +9146,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9029,6 +9196,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9079,6 +9247,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9132,6 +9301,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9185,6 +9355,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9238,6 +9409,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9291,6 +9463,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9340,6 +9513,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9389,6 +9563,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9442,6 +9617,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9495,6 +9671,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9544,6 +9721,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9597,6 +9775,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9650,6 +9829,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9703,6 +9883,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9756,6 +9937,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9809,6 +9991,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9862,6 +10045,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9915,6 +10099,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9968,6 +10153,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10021,6 +10207,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10074,6 +10261,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10127,6 +10315,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10180,6 +10369,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10233,6 +10423,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10286,6 +10477,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10339,6 +10531,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10392,6 +10585,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10445,6 +10639,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10498,6 +10693,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10551,6 +10747,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10604,6 +10801,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10653,6 +10851,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10702,6 +10901,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10751,6 +10951,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10800,6 +11001,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10849,6 +11051,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10898,6 +11101,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10947,6 +11151,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10996,6 +11201,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11045,6 +11251,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11094,6 +11301,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11143,6 +11351,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11192,6 +11401,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11241,6 +11451,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11290,6 +11501,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11339,6 +11551,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11392,6 +11605,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11445,6 +11659,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11498,6 +11713,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11551,6 +11767,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11604,6 +11821,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11657,6 +11875,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11710,6 +11929,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11763,6 +11983,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11816,6 +12037,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11869,6 +12091,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11922,6 +12145,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11975,6 +12199,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12028,6 +12253,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12081,6 +12307,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12134,6 +12361,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12187,6 +12415,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12240,6 +12469,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12293,6 +12523,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12346,6 +12577,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12399,6 +12631,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12452,6 +12685,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12501,6 +12735,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12554,6 +12789,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12607,6 +12843,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12660,6 +12897,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12713,6 +12951,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12766,6 +13005,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12819,6 +13059,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12872,6 +13113,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12925,6 +13167,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12978,6 +13221,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13031,6 +13275,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13084,6 +13329,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13137,6 +13383,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13190,6 +13437,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13243,6 +13491,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13296,6 +13545,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13349,6 +13599,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13402,6 +13653,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13455,6 +13707,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13508,6 +13761,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13561,6 +13815,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13614,6 +13869,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13667,6 +13923,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13720,6 +13977,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13773,6 +14031,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13822,6 +14081,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13871,6 +14131,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13924,6 +14185,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13977,6 +14239,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14030,6 +14293,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14083,6 +14347,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14136,6 +14401,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14189,6 +14455,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14242,6 +14509,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14295,6 +14563,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14348,6 +14617,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14397,6 +14667,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14450,6 +14721,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14503,6 +14775,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14556,6 +14829,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14609,6 +14883,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14658,6 +14933,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14711,6 +14987,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14764,6 +15041,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14817,6 +15095,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14870,6 +15149,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14923,6 +15203,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14972,6 +15253,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15025,6 +15307,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15078,6 +15361,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15131,6 +15415,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15180,6 +15465,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15229,6 +15515,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15278,6 +15565,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15331,6 +15619,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15384,6 +15673,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15437,6 +15727,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15490,6 +15781,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15539,6 +15831,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15588,6 +15881,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15637,6 +15931,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15686,6 +15981,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15739,6 +16035,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15792,6 +16089,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15845,6 +16143,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15898,6 +16197,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15951,6 +16251,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16004,6 +16305,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16057,6 +16359,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16110,6 +16413,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16163,6 +16467,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16216,6 +16521,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16269,6 +16575,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16322,6 +16629,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16371,6 +16679,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16424,6 +16733,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16477,6 +16787,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16530,6 +16841,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16583,6 +16895,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16636,6 +16949,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16689,6 +17003,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16742,6 +17057,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16795,6 +17111,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16848,6 +17165,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16901,6 +17219,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16954,6 +17273,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17007,6 +17327,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17060,6 +17381,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17109,6 +17431,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17162,6 +17485,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17215,6 +17539,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17268,6 +17593,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17321,6 +17647,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17374,6 +17701,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17427,6 +17755,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -17480,6 +17809,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -17533,6 +17863,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -17586,6 +17917,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -17639,6 +17971,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -17692,6 +18025,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -17745,6 +18079,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -17798,6 +18133,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17851,6 +18187,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17904,6 +18241,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17957,6 +18295,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18010,6 +18349,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18063,6 +18403,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18116,6 +18457,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18165,6 +18507,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18218,6 +18561,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18271,6 +18615,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18324,6 +18669,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18377,6 +18723,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -18430,6 +18777,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -18479,6 +18827,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -18532,6 +18881,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -18585,6 +18935,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -18638,6 +18989,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -18691,6 +19043,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -18744,6 +19097,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -18797,6 +19151,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -18850,6 +19205,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -18903,6 +19259,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18956,6 +19313,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19009,6 +19367,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19062,6 +19421,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19115,6 +19475,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19168,6 +19529,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19221,6 +19583,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19274,6 +19637,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19327,6 +19691,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19380,6 +19745,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -19433,6 +19799,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -19486,6 +19853,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -19539,6 +19907,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -19589,9 +19958,10 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -19642,9 +20012,10 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -19695,9 +20066,10 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -19748,9 +20120,10 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -19801,9 +20174,10 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -19854,9 +20228,10 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -19907,9 +20282,10 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -19960,9 +20336,10 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20016,6 +20393,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20069,6 +20447,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20122,6 +20501,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20175,6 +20555,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20228,6 +20609,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20281,6 +20663,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20334,6 +20717,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -20383,6 +20767,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -20432,6 +20817,7 @@
           <t>Critico</t>
         </is>
       </c>
+      <c r="L382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -20485,6 +20871,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -20538,6 +20925,7 @@
           <t>Alto</t>
         </is>
       </c>
+      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -20591,6 +20979,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -20633,9 +21022,10 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -20678,9 +21068,10 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -20731,9 +21122,10 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -20787,6 +21179,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -20840,6 +21233,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -20893,6 +21287,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -20935,9 +21330,10 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -20980,9 +21376,10 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21032,6 +21429,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21082,9 +21480,10 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21135,9 +21534,10 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21188,9 +21588,10 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21241,9 +21642,10 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21294,9 +21696,10 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -21347,9 +21750,10 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -21400,9 +21804,10 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -21453,9 +21858,10 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -21506,9 +21912,10 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -21551,9 +21958,10 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -21596,9 +22004,10 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -21649,9 +22058,10 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -21702,9 +22112,10 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -21747,9 +22158,10 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -21800,9 +22212,10 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -21853,9 +22266,10 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -21905,6 +22319,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -21950,6 +22365,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -21995,6 +22411,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22040,6 +22457,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22093,6 +22511,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22146,6 +22565,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22199,6 +22619,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -22252,6 +22673,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -22305,6 +22727,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -22358,6 +22781,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -22411,6 +22835,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -22464,6 +22889,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -22517,6 +22943,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -22570,6 +22997,7 @@
           <t>Medio</t>
         </is>
       </c>
+      <c r="L424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -22623,6 +23051,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -22676,6 +23105,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -22729,6 +23159,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -22782,6 +23213,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -22835,6 +23267,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -22888,6 +23321,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -22941,6 +23375,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -22994,6 +23429,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23047,6 +23483,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23100,6 +23537,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23153,6 +23591,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23206,6 +23645,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -23259,6 +23699,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -23312,6 +23753,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -23365,6 +23807,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -23418,6 +23861,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -23471,6 +23915,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -23524,6 +23969,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -23577,6 +24023,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -23630,6 +24077,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -23683,6 +24131,7 @@
           <t>No Critico</t>
         </is>
       </c>
+      <c r="L445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -23736,6 +24185,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -23789,6 +24239,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -23842,6 +24293,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -23895,6 +24347,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -23948,6 +24401,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24001,6 +24455,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24054,6 +24509,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24107,6 +24563,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24160,6 +24617,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -24213,6 +24671,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -24266,6 +24725,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -24319,6 +24779,7 @@
           <t>Bajo</t>
         </is>
       </c>
+      <c r="L457" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02. Data2HR/output data/dataAD.xlsx
+++ b/02. Data2HR/output data/dataAD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:K457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>Criticidad Name</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,7 +542,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -601,7 +595,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,7 +648,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,7 +697,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -755,7 +746,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -805,7 +795,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -859,7 +848,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -909,7 +897,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -960,7 +947,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1014,7 +1000,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1068,7 +1053,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1122,7 +1106,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1176,7 +1159,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1230,7 +1212,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1284,7 +1265,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1338,7 +1318,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1392,7 +1371,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1446,7 +1424,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1500,7 +1477,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1554,7 +1530,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1608,7 +1583,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1662,7 +1636,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1716,7 +1689,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1770,7 +1742,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1824,7 +1795,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1878,7 +1848,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1932,7 +1901,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1986,7 +1954,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2040,7 +2007,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2094,7 +2060,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2148,7 +2113,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2202,7 +2166,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2256,7 +2219,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2310,7 +2272,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2364,7 +2325,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2418,7 +2378,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2472,7 +2431,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2526,7 +2484,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2580,7 +2537,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2634,7 +2590,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2688,7 +2643,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2742,7 +2696,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2796,7 +2749,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2850,7 +2802,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2904,7 +2855,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2958,7 +2908,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3008,7 +2957,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3062,7 +3010,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3116,7 +3063,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3170,7 +3116,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3224,7 +3169,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3278,7 +3222,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3332,7 +3275,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3386,7 +3328,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3440,7 +3381,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3490,7 +3430,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3544,7 +3483,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3598,7 +3536,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3652,7 +3589,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3706,7 +3642,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3760,7 +3695,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3814,7 +3748,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3868,7 +3801,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3922,7 +3854,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3976,7 +3907,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4030,7 +3960,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4084,7 +4013,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4138,7 +4066,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4192,7 +4119,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4246,7 +4172,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4300,7 +4225,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4354,7 +4278,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4408,7 +4331,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4462,7 +4384,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4516,7 +4437,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4570,7 +4490,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4620,7 +4539,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4670,7 +4588,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4724,7 +4641,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4778,7 +4694,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4832,7 +4747,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4886,7 +4800,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4940,7 +4853,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4994,7 +4906,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5048,7 +4959,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5102,7 +5012,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5156,7 +5065,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5210,7 +5118,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5264,7 +5171,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5314,7 +5220,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5364,7 +5269,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5418,7 +5322,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5472,7 +5375,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5526,7 +5428,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5580,7 +5481,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5634,7 +5534,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5688,7 +5587,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5742,7 +5640,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5796,7 +5693,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5850,7 +5746,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5904,7 +5799,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5958,7 +5852,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6012,7 +5905,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6066,7 +5958,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6120,7 +6011,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6174,7 +6064,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6228,7 +6117,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6282,7 +6170,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6336,7 +6223,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6390,7 +6276,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6444,7 +6329,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6498,7 +6382,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6552,7 +6435,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6606,7 +6488,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6660,7 +6541,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6714,7 +6594,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6768,7 +6647,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6822,7 +6700,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6876,7 +6753,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6926,7 +6802,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6980,7 +6855,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7034,7 +6908,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7088,7 +6961,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7142,7 +7014,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7196,7 +7067,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7250,7 +7120,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7304,7 +7173,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7358,7 +7226,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7412,7 +7279,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7466,7 +7332,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7520,7 +7385,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7574,7 +7438,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7628,7 +7491,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7682,7 +7544,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7736,7 +7597,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7790,7 +7650,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7844,7 +7703,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7898,7 +7756,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7952,7 +7809,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8006,7 +7862,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8057,7 +7912,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8107,7 +7961,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8161,7 +8014,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8215,7 +8067,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8266,7 +8117,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8317,7 +8167,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8367,7 +8216,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8417,7 +8265,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8467,7 +8314,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8521,7 +8367,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8575,7 +8420,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8629,7 +8473,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8679,7 +8522,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8729,7 +8571,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8779,7 +8620,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8829,7 +8669,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8883,7 +8722,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8937,7 +8775,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8991,7 +8828,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9045,7 +8881,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9096,7 +8931,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9146,7 +8980,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9196,7 +9029,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9247,7 +9079,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9301,7 +9132,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9355,7 +9185,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9409,7 +9238,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9463,7 +9291,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9513,7 +9340,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9563,7 +9389,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9617,7 +9442,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9671,7 +9495,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9721,7 +9544,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9775,7 +9597,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9829,7 +9650,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9883,7 +9703,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9937,7 +9756,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9991,7 +9809,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10045,7 +9862,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10099,7 +9915,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10153,7 +9968,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10207,7 +10021,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10261,7 +10074,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10315,7 +10127,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10369,7 +10180,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10423,7 +10233,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10477,7 +10286,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10531,7 +10339,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10585,7 +10392,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10639,7 +10445,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10693,7 +10498,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10747,7 +10551,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10801,7 +10604,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10851,7 +10653,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10901,7 +10702,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10951,7 +10751,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11001,7 +10800,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11051,7 +10849,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11101,7 +10898,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11151,7 +10947,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11201,7 +10996,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11251,7 +11045,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11301,7 +11094,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11351,7 +11143,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11401,7 +11192,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11451,7 +11241,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11501,7 +11290,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11551,7 +11339,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11605,7 +11392,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11659,7 +11445,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11713,7 +11498,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11767,7 +11551,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11821,7 +11604,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11875,7 +11657,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11929,7 +11710,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11983,7 +11763,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12037,7 +11816,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12091,7 +11869,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12145,7 +11922,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12199,7 +11975,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12253,7 +12028,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12307,7 +12081,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12361,7 +12134,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12415,7 +12187,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12469,7 +12240,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12523,7 +12293,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12577,7 +12346,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12631,7 +12399,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12685,7 +12452,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12735,7 +12501,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12789,7 +12554,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12843,7 +12607,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12897,7 +12660,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12951,7 +12713,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13005,7 +12766,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13059,7 +12819,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13113,7 +12872,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13167,7 +12925,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13221,7 +12978,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13275,7 +13031,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13329,7 +13084,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13383,7 +13137,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13437,7 +13190,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13491,7 +13243,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13545,7 +13296,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13599,7 +13349,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13653,7 +13402,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13707,7 +13455,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13761,7 +13508,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13815,7 +13561,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13869,7 +13614,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13923,7 +13667,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13977,7 +13720,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14031,7 +13773,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14081,7 +13822,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14131,7 +13871,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14185,7 +13924,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14239,7 +13977,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14293,7 +14030,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14347,7 +14083,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14401,7 +14136,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14455,7 +14189,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14509,7 +14242,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14563,7 +14295,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14617,7 +14348,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14667,7 +14397,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14721,7 +14450,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14775,7 +14503,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14829,7 +14556,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14883,7 +14609,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14933,7 +14658,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14987,7 +14711,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15041,7 +14764,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15095,7 +14817,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15149,7 +14870,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15203,7 +14923,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15253,7 +14972,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15307,7 +15025,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15361,7 +15078,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15415,7 +15131,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15465,7 +15180,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15515,7 +15229,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15565,7 +15278,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15619,7 +15331,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15673,7 +15384,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15727,7 +15437,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15781,7 +15490,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15831,7 +15539,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15881,7 +15588,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15931,7 +15637,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15981,7 +15686,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16035,7 +15739,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16089,7 +15792,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16143,7 +15845,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16197,7 +15898,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16251,7 +15951,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16305,7 +16004,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16359,7 +16057,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16413,7 +16110,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16467,7 +16163,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16521,7 +16216,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16575,7 +16269,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16629,7 +16322,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16679,7 +16371,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16733,7 +16424,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16787,7 +16477,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16841,7 +16530,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16895,7 +16583,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16949,7 +16636,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17003,7 +16689,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17057,7 +16742,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17111,7 +16795,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17165,7 +16848,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17219,7 +16901,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17273,7 +16954,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17327,7 +17007,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17381,7 +17060,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17431,7 +17109,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17485,7 +17162,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17539,7 +17215,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17593,7 +17268,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17647,7 +17321,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17701,7 +17374,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17755,7 +17427,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -17809,7 +17480,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -17863,7 +17533,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -17917,7 +17586,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -17971,7 +17639,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18025,7 +17692,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18079,7 +17745,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18133,7 +17798,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18187,7 +17851,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18241,7 +17904,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18295,7 +17957,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18349,7 +18010,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18403,7 +18063,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18457,7 +18116,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18507,7 +18165,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18561,7 +18218,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18615,7 +18271,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18669,7 +18324,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18723,7 +18377,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -18777,7 +18430,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -18827,7 +18479,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -18881,7 +18532,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -18935,7 +18585,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -18989,7 +18638,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19043,7 +18691,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19097,7 +18744,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19151,7 +18797,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19205,7 +18850,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19259,7 +18903,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19313,7 +18956,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19367,7 +19009,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19421,7 +19062,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19475,7 +19115,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19529,7 +19168,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19583,7 +19221,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19637,7 +19274,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19691,7 +19327,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19745,7 +19380,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -19799,7 +19433,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -19853,7 +19486,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -19907,7 +19539,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -19961,7 +19592,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20015,7 +19645,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20069,7 +19698,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20123,7 +19751,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20177,7 +19804,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20231,7 +19857,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20285,7 +19910,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20339,7 +19963,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20393,7 +20016,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20447,7 +20069,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20501,7 +20122,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20555,7 +20175,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20609,7 +20228,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20663,7 +20281,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20717,7 +20334,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -20767,7 +20383,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -20817,7 +20432,6 @@
           <t>Critico</t>
         </is>
       </c>
-      <c r="L382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -20871,7 +20485,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -20925,7 +20538,6 @@
           <t>Alto</t>
         </is>
       </c>
-      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -20979,7 +20591,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21025,7 +20636,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21071,7 +20681,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21125,7 +20734,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21179,7 +20787,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21233,7 +20840,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21287,7 +20893,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21333,7 +20938,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21379,7 +20983,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21429,7 +21032,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21483,7 +21085,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21537,7 +21138,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21591,7 +21191,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21645,7 +21244,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21699,7 +21297,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -21753,7 +21350,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -21807,7 +21403,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -21861,7 +21456,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -21915,7 +21509,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -21961,7 +21554,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22007,7 +21599,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22061,7 +21652,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22115,7 +21705,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22161,7 +21750,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22215,7 +21803,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22269,7 +21856,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22319,7 +21905,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22365,7 +21950,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22411,7 +21995,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22457,7 +22040,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22511,7 +22093,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22565,7 +22146,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22619,7 +22199,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -22673,7 +22252,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -22727,7 +22305,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -22781,7 +22358,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -22835,7 +22411,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -22889,7 +22464,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -22943,7 +22517,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -22997,7 +22570,6 @@
           <t>Medio</t>
         </is>
       </c>
-      <c r="L424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23051,7 +22623,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23105,7 +22676,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23159,7 +22729,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23213,7 +22782,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23267,7 +22835,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23321,7 +22888,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23375,7 +22941,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23429,7 +22994,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23483,7 +23047,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23537,7 +23100,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23591,7 +23153,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23645,7 +23206,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -23699,7 +23259,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -23753,7 +23312,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -23807,7 +23365,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -23861,7 +23418,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -23915,7 +23471,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -23969,7 +23524,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -24023,7 +23577,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -24077,7 +23630,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -24131,7 +23683,6 @@
           <t>No Critico</t>
         </is>
       </c>
-      <c r="L445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24185,7 +23736,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -24239,7 +23789,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24293,7 +23842,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24347,7 +23895,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24401,7 +23948,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24455,7 +24001,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24509,7 +24054,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24563,7 +24107,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24617,7 +24160,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -24671,7 +24213,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -24725,7 +24266,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -24779,7 +24319,6 @@
           <t>Bajo</t>
         </is>
       </c>
-      <c r="L457" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
